--- a/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0.xlsx
+++ b/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v1_3_0/PrescaleTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62141E36-1DEB-C343-BD82-A265BC5263E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94828AA-4DC5-974F-9DA0-ACF0D0107A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="-18780" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:K404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2117,28 +2117,28 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>280</v>
+      </c>
+      <c r="H14">
+        <v>280</v>
+      </c>
+      <c r="I14">
+        <v>280</v>
+      </c>
+      <c r="J14">
         <v>200</v>
       </c>
-      <c r="F14">
-        <v>160</v>
-      </c>
-      <c r="G14">
-        <v>140</v>
-      </c>
-      <c r="H14">
-        <v>140</v>
-      </c>
-      <c r="I14">
-        <v>140</v>
-      </c>
-      <c r="J14">
-        <v>140</v>
-      </c>
       <c r="K14">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0.xlsx
+++ b/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master 4/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94828AA-4DC5-974F-9DA0-ACF0D0107A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55ED119-A8B0-D448-9E37-EF9605DA4B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:K404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="E12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="F12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="G12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="H12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="I12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="J12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="K12">
-        <v>1700</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
